--- a/uploads/templates/project.xlsx
+++ b/uploads/templates/project.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Web Dev\Fullstack\MERN Portfolio\server\uploads\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>title</t>
   </si>
@@ -31,36 +39,133 @@
     <t>projectImage</t>
   </si>
   <si>
-    <t>SCHOOL TIMETABLE</t>
-  </si>
-  <si>
-    <t>Uni proj</t>
-  </si>
-  <si>
-    <t>react</t>
-  </si>
-  <si>
-    <t>//</t>
+    <t>https://funprojects.netlify.app/ecommerce</t>
+  </si>
+  <si>
+    <t>ecommerce-first-view.png</t>
+  </si>
+  <si>
+    <t>GLOBAL FOOTBALL STORE</t>
+  </si>
+  <si>
+    <t>Solo fun project</t>
+  </si>
+  <si>
+    <t>https://github.com/codeLoverX/react-university-schedule</t>
+  </si>
+  <si>
+    <t>React, Redux Toolkit, MaterialUI</t>
+  </si>
+  <si>
+    <t>iconic-four-schedule.png</t>
+  </si>
+  <si>
+    <t>University team project</t>
+  </si>
+  <si>
+    <t>https://funprojects.netlify.app/portfolio</t>
+  </si>
+  <si>
+    <t>My First Portfolio</t>
+  </si>
+  <si>
+    <t>portfolio-first-view.png</t>
+  </si>
+  <si>
+    <t>https://funprojects.netlify.app/events</t>
+  </si>
+  <si>
+    <t>events-first-view.png</t>
+  </si>
+  <si>
+    <t>React, Redux, Node (ExpressJS), MongoDB, MDBootstrap</t>
+  </si>
+  <si>
+    <t>Node (ExpressJS), PostgresSQL, Handlebars</t>
+  </si>
+  <si>
+    <t>Events &amp; Reservations</t>
+  </si>
+  <si>
+    <t>https://funprojects.netlify.app/faceblog</t>
+  </si>
+  <si>
+    <t>faceblog-first-view.png</t>
+  </si>
+  <si>
+    <t>Faceblog</t>
+  </si>
+  <si>
+    <t>Umie Ju Corner Booking System</t>
+  </si>
+  <si>
+    <t>UTM School of Computing Admin Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React, Node (ExpressJS), ExcelToJson(Input Excel) NodeMailer(mail), MongoDB, Bootstrap, Redux, </t>
+  </si>
+  <si>
+    <t>Flutter, Context, Firebase</t>
+  </si>
+  <si>
+    <t>flutter-first-view.png</t>
+  </si>
+  <si>
+    <t>React, Redux, Node (ExpressJS), MongoDB, MaterialUI</t>
+  </si>
+  <si>
+    <t>Movie Reviews</t>
+  </si>
+  <si>
+    <t>Node (ExpressJS), MongoDB, Handlebars</t>
+  </si>
+  <si>
+    <t>https://funprojects.netlify.app/review</t>
+  </si>
+  <si>
+    <t>reviews-first-view.png</t>
+  </si>
+  <si>
+    <t>https://github.com/codeLoverX/umi-ju-restaurant-flutter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -68,7 +173,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -78,35 +183,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -296,23 +411,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.43"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -332,45 +453,171 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://football-mern-shop.netlify.app/"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/uploads/templates/project.xlsx
+++ b/uploads/templates/project.xlsx
@@ -42,9 +42,6 @@
     <t>https://funprojects.netlify.app/ecommerce</t>
   </si>
   <si>
-    <t>ecommerce-first-view.png</t>
-  </si>
-  <si>
     <t>GLOBAL FOOTBALL STORE</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>React, Redux Toolkit, MaterialUI</t>
   </si>
   <si>
-    <t>iconic-four-schedule.png</t>
-  </si>
-  <si>
     <t>University team project</t>
   </si>
   <si>
@@ -69,15 +63,9 @@
     <t>My First Portfolio</t>
   </si>
   <si>
-    <t>portfolio-first-view.png</t>
-  </si>
-  <si>
     <t>https://funprojects.netlify.app/events</t>
   </si>
   <si>
-    <t>events-first-view.png</t>
-  </si>
-  <si>
     <t>React, Redux, Node (ExpressJS), MongoDB, MDBootstrap</t>
   </si>
   <si>
@@ -90,9 +78,6 @@
     <t>https://funprojects.netlify.app/faceblog</t>
   </si>
   <si>
-    <t>faceblog-first-view.png</t>
-  </si>
-  <si>
     <t>Faceblog</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>Flutter, Context, Firebase</t>
   </si>
   <si>
-    <t>flutter-first-view.png</t>
-  </si>
-  <si>
     <t>React, Redux, Node (ExpressJS), MongoDB, MaterialUI</t>
   </si>
   <si>
@@ -123,10 +105,28 @@
     <t>https://funprojects.netlify.app/review</t>
   </si>
   <si>
-    <t>reviews-first-view.png</t>
-  </si>
-  <si>
     <t>https://github.com/codeLoverX/umi-ju-restaurant-flutter</t>
+  </si>
+  <si>
+    <t>ecommerce-first-view.PNG</t>
+  </si>
+  <si>
+    <t>flutter-first-view.PNG</t>
+  </si>
+  <si>
+    <t>faceblog-first-view.PNG</t>
+  </si>
+  <si>
+    <t>portfolio-first-view.PNG</t>
+  </si>
+  <si>
+    <t>events-first-view.PNG</t>
+  </si>
+  <si>
+    <t>reviews-first-view.PNG</t>
+  </si>
+  <si>
+    <t>iconic-four-schedule.PNG</t>
   </si>
 </sst>
 </file>
@@ -455,13 +455,13 @@
     </row>
     <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
@@ -470,104 +470,104 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>34</v>
@@ -576,22 +576,22 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="H8" s="2"/>
     </row>

--- a/uploads/templates/project.xlsx
+++ b/uploads/templates/project.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>title</t>
   </si>
@@ -39,9 +39,6 @@
     <t>projectImage</t>
   </si>
   <si>
-    <t>https://funprojects.netlify.app/ecommerce</t>
-  </si>
-  <si>
     <t>GLOBAL FOOTBALL STORE</t>
   </si>
   <si>
@@ -57,15 +54,9 @@
     <t>University team project</t>
   </si>
   <si>
-    <t>https://funprojects.netlify.app/portfolio</t>
-  </si>
-  <si>
     <t>My First Portfolio</t>
   </si>
   <si>
-    <t>https://funprojects.netlify.app/events</t>
-  </si>
-  <si>
     <t>React, Redux, Node (ExpressJS), MongoDB, MDBootstrap</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>Events &amp; Reservations</t>
   </si>
   <si>
-    <t>https://funprojects.netlify.app/faceblog</t>
-  </si>
-  <si>
     <t>Faceblog</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>Node (ExpressJS), MongoDB, Handlebars</t>
   </si>
   <si>
-    <t>https://funprojects.netlify.app/review</t>
-  </si>
-  <si>
     <t>https://github.com/codeLoverX/umi-ju-restaurant-flutter</t>
   </si>
   <si>
@@ -127,6 +112,9 @@
   </si>
   <si>
     <t>iconic-four-schedule.PNG</t>
+  </si>
+  <si>
+    <t>https://funprojects.netlify.app</t>
   </si>
 </sst>
 </file>
@@ -424,7 +412,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -455,143 +443,143 @@
     </row>
     <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -611,11 +599,11 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2" display="https://football-mern-shop.netlify.app/"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
